--- a/VerveStacks_CHE/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE/Sets-vervestacks.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10405469-30EC-4378-ACAC-536A51F17F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId3"/>
-    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId4"/>
+    <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
+    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -211,25 +211,28 @@
   </si>
   <si>
     <t>-*SMR</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>IRE</t>
+  </si>
+  <si>
+    <t>g[_]*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -269,130 +272,38 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499980002641678"/>
+        <color theme="4" tint="0.49995422223578601"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.399980008602142"/>
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="20"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="21"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="3">
+    <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Heading 2" xfId="20" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="21" builtinId="18"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -700,29 +611,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A3" sqref="A3:H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.8571428571429" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.71428571428571" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -754,30 +663,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4285714285714" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5714285714286" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.8571428571429" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4285714285714" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" thickBot="1">
+    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -809,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>38</v>
       </c>
@@ -826,7 +734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="14.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -834,7 +742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="14.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -842,7 +750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="14.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -850,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="14.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -864,7 +772,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="14.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -872,7 +780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="14.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -880,7 +788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="14.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>41</v>
       </c>
@@ -888,7 +796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="14.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>37</v>
       </c>
@@ -896,7 +804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="4:6" ht="14.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>50</v>
       </c>
@@ -904,7 +812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="14.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -915,7 +823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="14.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -926,7 +834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="4:6" ht="14.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>52</v>
       </c>
@@ -934,7 +842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -945,7 +853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="14.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>57</v>
       </c>
@@ -962,7 +870,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -973,7 +881,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -990,7 +898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -999,6 +907,17 @@
       </c>
       <c r="F20" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE/Sets-vervestacks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10405469-30EC-4378-ACAC-536A51F17F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45088BA-E355-4D59-B6D8-AA94E14D9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -87,15 +87,6 @@
     <t>CSET_CD</t>
   </si>
   <si>
-    <t>Nuclear</t>
-  </si>
-  <si>
-    <t>Hydro</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
     <t>c_Pos_AndOr</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>ep_gas_steam_turbine*,ep_oil_steam_turbine*</t>
   </si>
   <si>
-    <t>ep_nuclear*,ep_nuclear_smr*</t>
-  </si>
-  <si>
     <t>Wind onshore</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
     <t>*WOF*</t>
   </si>
   <si>
-    <t>Geothermal</t>
-  </si>
-  <si>
     <t>STG</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>Int Comb</t>
   </si>
   <si>
-    <t>Bioenergy</t>
-  </si>
-  <si>
     <t>EN*STG?hb*,-*EV*</t>
   </si>
   <si>
@@ -210,9 +192,6 @@
     <t>Or</t>
   </si>
   <si>
-    <t>-*SMR</t>
-  </si>
-  <si>
     <t>Grid</t>
   </si>
   <si>
@@ -220,6 +199,135 @@
   </si>
   <si>
     <t>g[_]*</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>e*spv*</t>
+  </si>
+  <si>
+    <t>e*won*,e*wof*</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>elc_transport</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>EVs</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>coal,gas,oil</t>
+  </si>
+  <si>
+    <t>geothermal,hydro,solar,wind</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>stepdown*</t>
+  </si>
+  <si>
+    <t>Nuclear P</t>
+  </si>
+  <si>
+    <t>*ror*</t>
+  </si>
+  <si>
+    <t>Hydro RoR</t>
+  </si>
+  <si>
+    <t>Geothermal P</t>
+  </si>
+  <si>
+    <t>Bio Power</t>
+  </si>
+  <si>
+    <t>Nuclear SMR</t>
+  </si>
+  <si>
+    <t>*SMR*</t>
+  </si>
+  <si>
+    <t>Solar Util</t>
+  </si>
+  <si>
+    <t>-*SMR*</t>
+  </si>
+  <si>
+    <t>-*ror*</t>
+  </si>
+  <si>
+    <t>Hydro Dam</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>Solar elec</t>
+  </si>
+  <si>
+    <t>Wind elec</t>
+  </si>
+  <si>
+    <t>distr*</t>
+  </si>
+  <si>
+    <t>Aggregators</t>
+  </si>
+  <si>
+    <t>IMP*Z</t>
+  </si>
+  <si>
+    <t>DUMMY_IMP</t>
+  </si>
+  <si>
+    <t>stepup*</t>
+  </si>
+  <si>
+    <t>Transformers Up</t>
+  </si>
+  <si>
+    <t>Transformers Dn</t>
   </si>
 </sst>
 </file>
@@ -612,26 +720,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB068F12-506D-4B74-BF24-03EBDA23C84D}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="65.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -648,27 +761,421 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B3" t="str">
+        <f>"e_*"&amp;K3</f>
+        <v>e_*220</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D23" si="0">"Elec-"&amp;K3&amp;"V"</f>
+        <v>Elec-220V</v>
+      </c>
+      <c r="K3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B23" si="1">"e_*"&amp;K4</f>
+        <v>e_*400</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-400V</v>
+      </c>
+      <c r="K4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*380</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-380V</v>
+      </c>
+      <c r="K5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*225</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-225V</v>
+      </c>
+      <c r="K6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*330</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-330V</v>
+      </c>
+      <c r="K7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*275</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-275V</v>
+      </c>
+      <c r="K8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*420</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-420V</v>
+      </c>
+      <c r="K9">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*300</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-300V</v>
+      </c>
+      <c r="K10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*500</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-500V</v>
+      </c>
+      <c r="K11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*750</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-750V</v>
+      </c>
+      <c r="K12">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*450</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-450V</v>
+      </c>
+      <c r="K13">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*515</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-515V</v>
+      </c>
+      <c r="K14">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*525</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-525V</v>
+      </c>
+      <c r="K15">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*320</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-320V</v>
+      </c>
+      <c r="K16">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*150</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-150V</v>
+      </c>
+      <c r="K17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*270</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-270V</v>
+      </c>
+      <c r="K18">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*350</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-350V</v>
+      </c>
+      <c r="K19">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*250</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-250V</v>
+      </c>
+      <c r="K20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*200</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-200V</v>
+      </c>
+      <c r="K21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*236</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-236V</v>
+      </c>
+      <c r="K22">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>e_*600</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Elec-600V</v>
+      </c>
+      <c r="K23">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" t="str">
+        <f>B28</f>
+        <v>bioenergy</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="str">
+        <f>B29</f>
+        <v>hydrogen</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="str">
+        <f>B30</f>
+        <v>nuclear</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" t="str">
+        <f>B31</f>
+        <v>ELC</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="str">
+        <f>B36</f>
+        <v>co2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="str">
+        <f>B37</f>
+        <v>co2captured</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:D37">
+    <sortCondition ref="A26:A37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71754C8A-E599-4286-919F-11B5789CC171}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -719,205 +1226,544 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>37</v>
+      <c r="D11" t="s">
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>11</v>
       </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
       <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="F23" t="s">
         <v>55</v>
       </c>
-      <c r="I17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B26" t="str">
+        <f>"g[_]*"&amp;K26</f>
+        <v>g[_]*220</v>
+      </c>
+      <c r="F26" t="str">
+        <f>"Grid-"&amp;K26&amp;"V"</f>
+        <v>Grid-220V</v>
+      </c>
+      <c r="K26">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B27" t="str">
+        <f t="shared" ref="B27:B46" si="0">"g[_]*"&amp;K27</f>
+        <v>g[_]*400</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" ref="F27:F46" si="1">"Grid-"&amp;K27&amp;"V"</f>
+        <v>Grid-400V</v>
+      </c>
+      <c r="K27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*380</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-380V</v>
+      </c>
+      <c r="K28">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*225</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-225V</v>
+      </c>
+      <c r="K29">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*330</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-330V</v>
+      </c>
+      <c r="K30">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*275</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-275V</v>
+      </c>
+      <c r="K31">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*420</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-420V</v>
+      </c>
+      <c r="K32">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*300</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-300V</v>
+      </c>
+      <c r="K33">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*500</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-500V</v>
+      </c>
+      <c r="K34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*750</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-750V</v>
+      </c>
+      <c r="K35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*450</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-450V</v>
+      </c>
+      <c r="K36">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*515</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-515V</v>
+      </c>
+      <c r="K37">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*525</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-525V</v>
+      </c>
+      <c r="K38">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*320</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-320V</v>
+      </c>
+      <c r="K39">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*150</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-150V</v>
+      </c>
+      <c r="K40">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*270</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-270V</v>
+      </c>
+      <c r="K41">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*350</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-350V</v>
+      </c>
+      <c r="K42">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*250</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-250V</v>
+      </c>
+      <c r="K43">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*200</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-200V</v>
+      </c>
+      <c r="K44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*236</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-236V</v>
+      </c>
+      <c r="K45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>g[_]*600</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>Grid-600V</v>
+      </c>
+      <c r="K46">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE/Sets-vervestacks.xlsx
+++ b/VerveStacks_CHE/Sets-vervestacks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\VerveStacks_ISO_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45088BA-E355-4D59-B6D8-AA94E14D9181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52485F27-B929-4917-B544-8B3D23B3A785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="98">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -111,223 +111,226 @@
     <t>ep_gas_steam_turbine*,ep_oil_steam_turbine*</t>
   </si>
   <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>*hydro*</t>
+  </si>
+  <si>
+    <t>Hydro pumped stg</t>
+  </si>
+  <si>
+    <t>IGCC</t>
+  </si>
+  <si>
+    <t>ep_bioenergy*,bioen*</t>
+  </si>
+  <si>
+    <t>ep_gas_combined_cycle*,ep_oil_combined_cycle*,CCGT*,*GasCC*</t>
+  </si>
+  <si>
+    <t>ep_gas_gas_turbine*,ep_oil_gas_turbine*,gas turbine*,EN*CT*</t>
+  </si>
+  <si>
+    <t>ep_coal_CFB*,ep_coal_subcritical*,*subcritical*</t>
+  </si>
+  <si>
+    <t>*IGCC*</t>
+  </si>
+  <si>
+    <t>ep_coal_supercritical*,ep_coal_supercritical_CCS*,ep_coal_ultra-supercritical*,ep_coal_ultra-supercritical_CCS*,*supercritical*</t>
+  </si>
+  <si>
+    <t>Gas_Oil Steam</t>
+  </si>
+  <si>
+    <t>Int Comb</t>
+  </si>
+  <si>
+    <t>EN*STG?hb*,-*EV*</t>
+  </si>
+  <si>
+    <t>Util Batt Stg</t>
+  </si>
+  <si>
+    <t>*EV*</t>
+  </si>
+  <si>
+    <t>EV Batt</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Or</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>IRE</t>
+  </si>
+  <si>
+    <t>g[_]*</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>e*spv*</t>
+  </si>
+  <si>
+    <t>e*won*,e*wof*</t>
+  </si>
+  <si>
+    <t>bioenergy</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>elc_transport</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>co2</t>
+  </si>
+  <si>
+    <t>co2captured</t>
+  </si>
+  <si>
+    <t>buildings</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>EVs</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>coal,gas,oil</t>
+  </si>
+  <si>
+    <t>geothermal,hydro,solar,wind</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>stepdown*</t>
+  </si>
+  <si>
+    <t>Nuclear P</t>
+  </si>
+  <si>
+    <t>*ror*</t>
+  </si>
+  <si>
+    <t>Hydro RoR</t>
+  </si>
+  <si>
+    <t>Geothermal P</t>
+  </si>
+  <si>
+    <t>Bio Power</t>
+  </si>
+  <si>
+    <t>Nuclear SMR</t>
+  </si>
+  <si>
+    <t>*SMR*</t>
+  </si>
+  <si>
+    <t>Solar Util</t>
+  </si>
+  <si>
+    <t>-*SMR*</t>
+  </si>
+  <si>
+    <t>-*ror*</t>
+  </si>
+  <si>
+    <t>Hydro Dam</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>Solar elec</t>
+  </si>
+  <si>
+    <t>Wind elec</t>
+  </si>
+  <si>
+    <t>Aggregators</t>
+  </si>
+  <si>
+    <t>IMP*Z</t>
+  </si>
+  <si>
+    <t>DUMMY_IMP</t>
+  </si>
+  <si>
+    <t>stepup*</t>
+  </si>
+  <si>
+    <t>Transformers Up</t>
+  </si>
+  <si>
+    <t>Transformers Dn</t>
+  </si>
+  <si>
+    <t>windon</t>
+  </si>
+  <si>
+    <t>windoff</t>
+  </si>
+  <si>
+    <t>Onshore Wind</t>
+  </si>
+  <si>
+    <t>Offshore Wind</t>
+  </si>
+  <si>
     <t>Wind onshore</t>
   </si>
   <si>
     <t>Wind offshore</t>
   </si>
   <si>
-    <t>-*WOF*</t>
-  </si>
-  <si>
-    <t>*WOF*</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>*hydro*</t>
-  </si>
-  <si>
-    <t>Hydro pumped stg</t>
-  </si>
-  <si>
-    <t>IGCC</t>
-  </si>
-  <si>
-    <t>ep_bioenergy*,bioen*</t>
-  </si>
-  <si>
-    <t>ep_gas_combined_cycle*,ep_oil_combined_cycle*,CCGT*,*GasCC*</t>
-  </si>
-  <si>
-    <t>ep_gas_gas_turbine*,ep_oil_gas_turbine*,gas turbine*,EN*CT*</t>
-  </si>
-  <si>
-    <t>ep_coal_CFB*,ep_coal_subcritical*,*subcritical*</t>
-  </si>
-  <si>
-    <t>*IGCC*</t>
-  </si>
-  <si>
-    <t>ep_coal_supercritical*,ep_coal_supercritical_CCS*,ep_coal_ultra-supercritical*,ep_coal_ultra-supercritical_CCS*,*supercritical*</t>
-  </si>
-  <si>
-    <t>Gas_Oil Steam</t>
-  </si>
-  <si>
-    <t>Int Comb</t>
-  </si>
-  <si>
-    <t>EN*STG?hb*,-*EV*</t>
-  </si>
-  <si>
-    <t>Util Batt Stg</t>
-  </si>
-  <si>
-    <t>*EV*</t>
-  </si>
-  <si>
-    <t>EV Batt</t>
-  </si>
-  <si>
-    <t>solar</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>And</t>
-  </si>
-  <si>
-    <t>Or</t>
-  </si>
-  <si>
-    <t>Grid</t>
-  </si>
-  <si>
-    <t>IRE</t>
-  </si>
-  <si>
-    <t>g[_]*</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>e*spv*</t>
-  </si>
-  <si>
-    <t>e*won*,e*wof*</t>
-  </si>
-  <si>
-    <t>bioenergy</t>
-  </si>
-  <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
-    <t>ELC</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>elc_transport</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>co2</t>
-  </si>
-  <si>
-    <t>co2captured</t>
-  </si>
-  <si>
-    <t>buildings</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>EVs</t>
-  </si>
-  <si>
-    <t>fossil</t>
-  </si>
-  <si>
-    <t>coal,gas,oil</t>
-  </si>
-  <si>
-    <t>geothermal,hydro,solar,wind</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>stepdown*</t>
-  </si>
-  <si>
-    <t>Nuclear P</t>
-  </si>
-  <si>
-    <t>*ror*</t>
-  </si>
-  <si>
-    <t>Hydro RoR</t>
-  </si>
-  <si>
-    <t>Geothermal P</t>
-  </si>
-  <si>
-    <t>Bio Power</t>
-  </si>
-  <si>
-    <t>Nuclear SMR</t>
-  </si>
-  <si>
-    <t>*SMR*</t>
-  </si>
-  <si>
-    <t>Solar Util</t>
-  </si>
-  <si>
-    <t>-*SMR*</t>
-  </si>
-  <si>
-    <t>-*ror*</t>
-  </si>
-  <si>
-    <t>Hydro Dam</t>
-  </si>
-  <si>
-    <t>renewable</t>
-  </si>
-  <si>
-    <t>Solar elec</t>
-  </si>
-  <si>
-    <t>Wind elec</t>
-  </si>
-  <si>
     <t>distr*</t>
-  </si>
-  <si>
-    <t>Aggregators</t>
-  </si>
-  <si>
-    <t>IMP*Z</t>
-  </si>
-  <si>
-    <t>DUMMY_IMP</t>
-  </si>
-  <si>
-    <t>stepup*</t>
-  </si>
-  <si>
-    <t>Transformers Up</t>
-  </si>
-  <si>
-    <t>Transformers Dn</t>
   </si>
 </sst>
 </file>
@@ -723,7 +726,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1045,39 +1048,39 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D28" t="str">
         <f>B28</f>
@@ -1086,7 +1089,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D29" t="str">
         <f>B29</f>
@@ -1095,7 +1098,7 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D30" t="str">
         <f>B30</f>
@@ -1104,7 +1107,7 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D31" t="str">
         <f>B31</f>
@@ -1113,39 +1116,39 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D36" t="str">
         <f>B36</f>
@@ -1154,7 +1157,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D37" t="str">
         <f>B37</f>
@@ -1174,8 +1177,8 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1226,7 +1229,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -1235,10 +1238,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -1246,7 +1249,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -1254,26 +1257,26 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -1281,7 +1284,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -1289,56 +1292,57 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>95</v>
+      </c>
+      <c r="G12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
@@ -1346,13 +1350,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -1360,121 +1364,121 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -1752,18 +1756,18 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B47" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
